--- a/school_1/vor_spartac_1_ceiling.xlsx
+++ b/school_1/vor_spartac_1_ceiling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="19155" windowHeight="8520"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="19155" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ВОРPt" sheetId="1" r:id="rId1"/>
@@ -336,19 +336,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -359,6 +347,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,11 +762,11 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -856,11 +856,11 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -935,7 +935,7 @@
       <c r="A17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -951,11 +951,11 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -1029,7 +1029,7 @@
       <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-      <c r="G1" s="25"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1105,7 +1105,7 @@
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -1123,8 +1123,8 @@
       <c r="E3" s="1">
         <v>37.44</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="25"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -1142,8 +1142,8 @@
       <c r="E4" s="1">
         <v>22</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="25"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -1161,8 +1161,8 @@
       <c r="E5" s="1">
         <v>201</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="25"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -1180,16 +1180,16 @@
       <c r="E6" s="1">
         <v>41.183999999999997</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="25"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="G7" s="25"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -1199,7 +1199,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1217,7 +1217,7 @@
       <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -1235,7 +1235,7 @@
       <c r="E10" s="1">
         <v>37.44</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
@@ -1248,20 +1248,20 @@
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="E11" s="1">
         <f>E10*D11</f>
-        <v>187.2</v>
-      </c>
-      <c r="G11" s="24"/>
+        <v>67.391999999999996</v>
+      </c>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -1273,15 +1273,15 @@
         <f>E10*D12</f>
         <v>5.6159999999999997</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="G13" s="24"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -1291,7 +1291,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -1309,7 +1309,7 @@
       <c r="E15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -1328,7 +1328,7 @@
         <f>E10</f>
         <v>37.44</v>
       </c>
-      <c r="G16" s="24"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -1347,34 +1347,34 @@
         <f>E16*D17</f>
         <v>5.6159999999999997</v>
       </c>
-      <c r="G17" s="24"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="2">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="E18" s="1">
         <f>E16*D18</f>
-        <v>168.48</v>
-      </c>
-      <c r="G18" s="24"/>
+        <v>67.391999999999996</v>
+      </c>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="G19" s="24"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -1384,7 +1384,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="G20" s="24"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -1402,7 +1402,7 @@
       <c r="E21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
@@ -1420,7 +1420,7 @@
       <c r="E22" s="1">
         <v>37.44</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
@@ -1439,13 +1439,13 @@
         <f>E22*D23</f>
         <v>5.6159999999999997</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1458,7 +1458,7 @@
         <f>E22*D24</f>
         <v>11.231999999999999</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1472,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,11 +1528,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -1588,11 +1588,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="E8" s="1">
         <f>E7*D8</f>
-        <v>46.4</v>
+        <v>16.704000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -1614,11 +1614,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -1686,31 +1686,31 @@
       <c r="A15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="E15" s="1">
         <f>E13*D15</f>
-        <v>41.76</v>
+        <v>16.704000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1772,7 +1772,7 @@
       <c r="A21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1784,11 +1784,6 @@
       <c r="E21" s="1">
         <f>E19*D21</f>
         <v>2.7839999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>7044</v>
       </c>
     </row>
   </sheetData>
@@ -1818,21 +1813,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1843,7 +1838,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1854,7 +1849,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="18">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1865,8 +1860,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1">
@@ -1875,21 +1870,21 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1900,7 +1895,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="18">
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1911,7 +1906,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="18">
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1922,8 +1917,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1">
